--- a/doc/50_単体テスト(UT)/02_エビデンス/Kaku_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_表紙.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/Kaku_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_表紙.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\EB研修\pethotel\50_単体テスト(UT)\01_UCL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaku/Documents/workspaces/certificate-online/doc/50_単体テスト(UT)/02_エビデンス/Kaku_USER02_会員登録画面_エビデンス/打鍵後のUCL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92D4A43-96EE-41BE-B032-FFF517C81FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F05A380-BF9A-5049-B197-C9C80D5DBFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ケース一覧" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -384,6 +384,14 @@
   <si>
     <t>UT-USER02-E-001～
 UT-USER02-E-024</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EB-郭</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ａ-画面レイアウト.xlsx</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -887,25 +895,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF5F290-89E5-44A4-9863-B4AF1EE4D699}">
   <dimension ref="B2:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.796875" customWidth="1"/>
-    <col min="2" max="2" width="6.19921875" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" customWidth="1"/>
-    <col min="4" max="4" width="50.59765625" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="50.6640625" customWidth="1"/>
     <col min="5" max="5" width="29.5" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="8" width="40.59765625" customWidth="1"/>
+    <col min="7" max="8" width="40.6640625" customWidth="1"/>
     <col min="9" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="40.59765625" customWidth="1"/>
-    <col min="12" max="12" width="32.3984375" customWidth="1"/>
+    <col min="11" max="11" width="40.6640625" customWidth="1"/>
+    <col min="12" max="12" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" s="10" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:12" s="10" customFormat="1" ht="54.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -940,7 +948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="48" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -962,12 +970,18 @@
       <c r="H3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="I3" s="11">
+        <v>45069</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:12" ht="48" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -994,7 +1008,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="2:12" ht="36" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -1021,7 +1035,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="2:12" ht="36" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -1048,7 +1062,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="2:12" ht="122.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:12" ht="122.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -1075,7 +1089,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:12" ht="58.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:12" ht="58.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -1102,7 +1116,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="2:12" ht="121.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:12" ht="121.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -1129,7 +1143,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1142,7 +1156,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1155,7 +1169,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1168,7 +1182,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1181,7 +1195,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1194,7 +1208,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1207,7 +1221,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1220,7 +1234,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1233,7 +1247,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1246,7 +1260,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1259,7 +1273,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1272,7 +1286,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1285,7 +1299,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1298,7 +1312,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>

--- a/doc/50_単体テスト(UT)/02_エビデンス/Kaku_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_表紙.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/Kaku_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_表紙.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaku/Documents/workspaces/certificate-online/doc/50_単体テスト(UT)/02_エビデンス/Kaku_USER02_会員登録画面_エビデンス/打鍵後のUCL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F05A380-BF9A-5049-B197-C9C80D5DBFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC133B5-D0EA-C540-A972-0958F067CC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ケース一覧" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -391,7 +391,54 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Ａ-画面レイアウト.xlsx</t>
+    <t>B-画面項目確認.xlsx</t>
+    <rPh sb="2" eb="6">
+      <t xml:space="preserve">ガメンコウモク </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">カクニン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ａ-画面レイアウト確認.xlsx</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">カクニン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C-活性非活性確認.xlsx</t>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">カッセイ </t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t xml:space="preserve">ヒカッセイ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">カクニン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D-表示非表示確認.xlsx</t>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t xml:space="preserve">ヒヒョウジ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">カクニン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E-エラーメッセージ確認クライアント.xlsx
+E-エラーメッセージ確認サーバ.xlsx</t>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">カクニン </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -895,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF5F290-89E5-44A4-9863-B4AF1EE4D699}">
   <dimension ref="B2:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -977,7 +1024,7 @@
         <v>46</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L3" s="1"/>
     </row>
@@ -1003,9 +1050,15 @@
       <c r="H4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="I4" s="11">
+        <v>45069</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="2:12" ht="36" x14ac:dyDescent="0.25">
@@ -1030,9 +1083,15 @@
       <c r="H5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="I5" s="11">
+        <v>45071</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="2:12" ht="36" x14ac:dyDescent="0.25">
@@ -1057,9 +1116,15 @@
       <c r="H6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="I6" s="11">
+        <v>45071</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="2:12" ht="122.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1084,9 +1149,15 @@
       <c r="H7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="I7" s="11">
+        <v>45071</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="2:12" ht="58.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/doc/50_単体テスト(UT)/02_エビデンス/Kaku_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_表紙.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/Kaku_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_表紙.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaku/Documents/workspaces/certificate-online/doc/50_単体テスト(UT)/02_エビデンス/Kaku_USER02_会員登録画面_エビデンス/打鍵後のUCL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC133B5-D0EA-C540-A972-0958F067CC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F84EAA-FB42-0E43-9232-4CB3504E48C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -438,6 +438,35 @@
 E-エラーメッセージ確認サーバ.xlsx</t>
     <rPh sb="10" eb="12">
       <t xml:space="preserve">カクニン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗：完了</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シンチョク </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">カンリョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗：完了</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗：3/4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗：3/6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗：完了</t>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">カンリョウ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -942,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF5F290-89E5-44A4-9863-B4AF1EE4D699}">
   <dimension ref="B2:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -1026,7 +1055,9 @@
       <c r="K3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="4" spans="2:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
@@ -1059,7 +1090,9 @@
       <c r="K4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="5" spans="2:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
@@ -1092,7 +1125,9 @@
       <c r="K5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" spans="2:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
@@ -1125,7 +1160,9 @@
       <c r="K6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="2:12" ht="122.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
@@ -1158,7 +1195,9 @@
       <c r="K7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="8" spans="2:12" ht="58.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4">

--- a/doc/50_単体テスト(UT)/02_エビデンス/Kaku_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_表紙.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/Kaku_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_表紙.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaku/Documents/workspaces/certificate-online/doc/50_単体テスト(UT)/02_エビデンス/Kaku_USER02_会員登録画面_エビデンス/打鍵後のUCL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F84EAA-FB42-0E43-9232-4CB3504E48C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D4C334-071E-6847-8944-7188B2444566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -408,32 +408,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C-活性非活性確認.xlsx</t>
-    <rPh sb="2" eb="4">
-      <t xml:space="preserve">カッセイ </t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t xml:space="preserve">ヒカッセイ </t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">カクニン </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D-表示非表示確認.xlsx</t>
-    <rPh sb="2" eb="4">
-      <t xml:space="preserve">ヒョウジ </t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t xml:space="preserve">ヒヒョウジ </t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">カクニン </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>E-エラーメッセージ確認クライアント.xlsx
 E-エラーメッセージ確認サーバ.xlsx</t>
     <rPh sb="10" eb="12">
@@ -453,14 +427,6 @@
   </si>
   <si>
     <t>進捗：完了</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>進捗：3/4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>進捗：3/6</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -972,7 +938,7 @@
   <dimension ref="B2:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -1056,7 +1022,7 @@
         <v>48</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -1091,7 +1057,7 @@
         <v>47</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="36" x14ac:dyDescent="0.25">
@@ -1116,18 +1082,10 @@
       <c r="H5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="11">
-        <v>45071</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="2:12" ht="36" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
@@ -1151,18 +1109,10 @@
       <c r="H6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="11">
-        <v>45071</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
     <row r="7" spans="2:12" ht="122.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
@@ -1193,10 +1143,10 @@
         <v>46</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="58.25" customHeight="1" x14ac:dyDescent="0.25">
